--- a/Anand_Work/FallWork2018/SaveAs__.XLSX__Report/Provider_survey_data.xlsx
+++ b/Anand_Work/FallWork2018/SaveAs__.XLSX__Report/Provider_survey_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\qualtrics_data_py\Anand_Work\FallWork2018\Put_datafile_XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\qualtrics_data_py\Anand_Work\FallWork2018\SaveAs__.XLSX__Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9668" uniqueCount="7303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9663" uniqueCount="7299">
   <si>
     <t>StartDate</t>
   </si>
@@ -22046,9 +22046,6 @@
     <t>Camp White Branch</t>
   </si>
   <si>
-    <t>One</t>
-  </si>
-  <si>
     <t>campwhitebranch.org</t>
   </si>
   <si>
@@ -22077,9 +22074,6 @@
   </si>
   <si>
     <t>Coyle Outside LLC</t>
-  </si>
-  <si>
-    <t>We are not a facility provider.  We partner with facility providers and we provide curriculum/instruction.</t>
   </si>
   <si>
     <t>www.coyleoutside.com</t>
@@ -22738,9 +22732,6 @@
   </si>
   <si>
     <t>Camp Cooper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I manage just the one, but Camp Cooper is a Boy Scout holding, managed by the Cascade Pacific Council out of Portland Oregon. </t>
   </si>
   <si>
     <t>cpcbsa.org</t>
@@ -23284,9 +23275,6 @@
   </si>
   <si>
     <t>Kellogg Springs Camp</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>www.KelloggSprings.com</t>
@@ -24117,11 +24105,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CEL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H35" zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30633,7 +30623,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="2" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2170</v>
       </c>
@@ -37145,7 +37135,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="3" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3901</v>
       </c>
@@ -43657,7 +43647,7 @@
         <v>6070</v>
       </c>
     </row>
-    <row r="4" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43378.46875</v>
       </c>
@@ -43695,7 +43685,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="5" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43378.470138888886</v>
       </c>
@@ -43742,7 +43732,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="6" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43380.911111111112</v>
       </c>
@@ -43810,7 +43800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43381.709027777775</v>
       </c>
@@ -43890,7 +43880,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="8" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43381.711805555555</v>
       </c>
@@ -43985,7 +43975,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="9" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43381.714583333334</v>
       </c>
@@ -44080,7 +44070,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="10" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43381.71597222222</v>
       </c>
@@ -44172,7 +44162,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="11" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43381.74722222222</v>
       </c>
@@ -44255,7 +44245,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="12" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43381.737500000003</v>
       </c>
@@ -44560,7 +44550,7 @@
         <v>6191</v>
       </c>
     </row>
-    <row r="13" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43381.875694444447</v>
       </c>
@@ -44655,7 +44645,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="14" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43382.019444444442</v>
       </c>
@@ -44732,7 +44722,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="15" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43382.424305555556</v>
       </c>
@@ -44956,7 +44946,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="16" spans="1:2170" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43382.427777777775</v>
       </c>
@@ -45231,7 +45221,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="17" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43382.503472222219</v>
       </c>
@@ -45740,7 +45730,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="18" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43382.631944444445</v>
       </c>
@@ -45835,7 +45825,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="19" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43383.438888888886</v>
       </c>
@@ -45915,7 +45905,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="20" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43383.492361111108</v>
       </c>
@@ -46646,7 +46636,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="21" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43383.669444444444</v>
       </c>
@@ -46741,7 +46731,7 @@
         <v>6416</v>
       </c>
     </row>
-    <row r="22" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43383.672222222223</v>
       </c>
@@ -46836,7 +46826,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="23" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43384.428472222222</v>
       </c>
@@ -46931,7 +46921,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="24" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43385.601388888892</v>
       </c>
@@ -47026,7 +47016,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="25" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43388.434027777781</v>
       </c>
@@ -47325,7 +47315,7 @@
         <v>6466</v>
       </c>
     </row>
-    <row r="26" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43388.554166666669</v>
       </c>
@@ -47495,7 +47485,7 @@
         <v>6243</v>
       </c>
     </row>
-    <row r="27" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43383.459027777775</v>
       </c>
@@ -47806,7 +47796,7 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="28" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43388.67083333333</v>
       </c>
@@ -48087,7 +48077,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="29" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43388.647222222222</v>
       </c>
@@ -48773,7 +48763,7 @@
         <v>6593</v>
       </c>
     </row>
-    <row r="30" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43388.694444444445</v>
       </c>
@@ -49075,7 +49065,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="31" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43389.655555555553</v>
       </c>
@@ -49113,7 +49103,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="32" spans="1:405 1736:2042 2156:2164" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:405 1736:2042 2156:2164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43389.655555555553</v>
       </c>
@@ -49151,7 +49141,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="33" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43389.656944444447</v>
       </c>
@@ -49201,7 +49191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43390.460416666669</v>
       </c>
@@ -49440,7 +49430,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="35" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43384.48541666667</v>
       </c>
@@ -50033,7 +50023,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="36" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43391.505555555559</v>
       </c>
@@ -50245,7 +50235,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="37" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43392.473611111112</v>
       </c>
@@ -50511,7 +50501,7 @@
         <v>6769</v>
       </c>
     </row>
-    <row r="38" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43395.425000000003</v>
       </c>
@@ -50771,7 +50761,7 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="39" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43396.657638888886</v>
       </c>
@@ -50929,7 +50919,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="40" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43396.761111111111</v>
       </c>
@@ -51018,7 +51008,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="41" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43396.743055555555</v>
       </c>
@@ -51296,7 +51286,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="42" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43396.763194444444</v>
       </c>
@@ -51508,7 +51498,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="43" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43397.595833333333</v>
       </c>
@@ -51693,7 +51683,7 @@
         <v>6902</v>
       </c>
     </row>
-    <row r="44" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43397.693055555559</v>
       </c>
@@ -51739,32 +51729,32 @@
       <c r="S44" t="s">
         <v>6906</v>
       </c>
-      <c r="T44" t="s">
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
         <v>6907</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>6908</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>6909</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>6910</v>
-      </c>
-      <c r="X44" t="s">
-        <v>6911</v>
       </c>
       <c r="Y44" t="s">
         <v>6905</v>
       </c>
       <c r="Z44" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="AA44" t="s">
         <v>6090</v>
       </c>
       <c r="AB44" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
       <c r="AH44" t="s">
         <v>6076</v>
@@ -51776,7 +51766,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="45" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43398.420138888891</v>
       </c>
@@ -51787,7 +51777,7 @@
         <v>2173</v>
       </c>
       <c r="D45" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -51802,7 +51792,7 @@
         <v>43398.424305555556</v>
       </c>
       <c r="I45" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
       <c r="N45">
         <v>44.590393069999998</v>
@@ -51817,37 +51807,37 @@
         <v>6074</v>
       </c>
       <c r="R45" t="s">
+        <v>6915</v>
+      </c>
+      <c r="S45" t="s">
         <v>6916</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" t="s">
         <v>6917</v>
       </c>
-      <c r="T45" t="s">
+      <c r="V45" t="s">
         <v>6918</v>
       </c>
-      <c r="U45" t="s">
+      <c r="W45" t="s">
         <v>6919</v>
       </c>
-      <c r="V45" t="s">
+      <c r="X45" t="s">
         <v>6920</v>
       </c>
-      <c r="W45" t="s">
+      <c r="Y45" t="s">
         <v>6921</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Z45" t="s">
         <v>6922</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>6923</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>6924</v>
       </c>
       <c r="AA45" t="s">
         <v>6090</v>
       </c>
       <c r="AB45" t="s">
-        <v>6925</v>
+        <v>6923</v>
       </c>
       <c r="AH45" t="s">
         <v>6076</v>
@@ -51859,7 +51849,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="46" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43399.734027777777</v>
       </c>
@@ -51870,7 +51860,7 @@
         <v>2173</v>
       </c>
       <c r="D46" t="s">
-        <v>6926</v>
+        <v>6924</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -51885,7 +51875,7 @@
         <v>43399.767361111109</v>
       </c>
       <c r="I46" t="s">
-        <v>6927</v>
+        <v>6925</v>
       </c>
       <c r="N46">
         <v>45.544097899999997</v>
@@ -51909,7 +51899,7 @@
         <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>6928</v>
+        <v>6926</v>
       </c>
       <c r="V46" t="s">
         <v>6423</v>
@@ -51930,13 +51920,13 @@
         <v>6102</v>
       </c>
       <c r="AB46" t="s">
-        <v>6929</v>
+        <v>6927</v>
       </c>
       <c r="AC46" t="s">
         <v>6429</v>
       </c>
       <c r="AD46" t="s">
-        <v>6930</v>
+        <v>6928</v>
       </c>
       <c r="AE46">
         <v>97358</v>
@@ -51945,7 +51935,7 @@
         <v>6333</v>
       </c>
       <c r="AG46" t="s">
-        <v>6931</v>
+        <v>6929</v>
       </c>
       <c r="AH46" t="s">
         <v>6076</v>
@@ -51984,7 +51974,7 @@
         <v>431</v>
       </c>
       <c r="EJ46" t="s">
-        <v>6932</v>
+        <v>6930</v>
       </c>
       <c r="EK46" t="s">
         <v>6163</v>
@@ -51996,13 +51986,13 @@
         <v>6163</v>
       </c>
       <c r="EN46" t="s">
-        <v>6933</v>
+        <v>6931</v>
       </c>
       <c r="EP46" t="s">
         <v>6726</v>
       </c>
       <c r="EQ46" t="s">
-        <v>6934</v>
+        <v>6932</v>
       </c>
       <c r="ER46" t="s">
         <v>6167</v>
@@ -52020,19 +52010,19 @@
         <v>6169</v>
       </c>
       <c r="EY46" t="s">
-        <v>6935</v>
+        <v>6933</v>
       </c>
       <c r="EZ46" s="1" t="s">
-        <v>6936</v>
+        <v>6934</v>
       </c>
       <c r="FA46" t="s">
         <v>6477</v>
       </c>
       <c r="FB46" t="s">
-        <v>6937</v>
+        <v>6935</v>
       </c>
       <c r="FC46" t="s">
-        <v>6938</v>
+        <v>6936</v>
       </c>
       <c r="ML46" t="s">
         <v>6176</v>
@@ -52077,22 +52067,22 @@
         <v>6163</v>
       </c>
       <c r="BOA46" t="s">
-        <v>6939</v>
+        <v>6937</v>
       </c>
       <c r="BOB46" t="s">
-        <v>6940</v>
+        <v>6938</v>
       </c>
       <c r="BRP46" t="s">
         <v>6762</v>
       </c>
       <c r="BRR46" t="s">
+        <v>6939</v>
+      </c>
+      <c r="BRS46" t="s">
+        <v>6940</v>
+      </c>
+      <c r="BRT46" t="s">
         <v>6941</v>
-      </c>
-      <c r="BRS46" t="s">
-        <v>6942</v>
-      </c>
-      <c r="BRT46" t="s">
-        <v>6943</v>
       </c>
       <c r="BTN46" t="s">
         <v>6463</v>
@@ -52119,7 +52109,7 @@
         <v>6186</v>
       </c>
       <c r="BTV46" t="s">
-        <v>6944</v>
+        <v>6942</v>
       </c>
       <c r="BXJ46" t="s">
         <v>6163</v>
@@ -52155,16 +52145,16 @@
         <v>6163</v>
       </c>
       <c r="CDX46" t="s">
+        <v>6943</v>
+      </c>
+      <c r="CDY46" t="s">
+        <v>6944</v>
+      </c>
+      <c r="CDZ46" t="s">
         <v>6945</v>
       </c>
-      <c r="CDY46" t="s">
-        <v>6946</v>
-      </c>
-      <c r="CDZ46" t="s">
-        <v>6947</v>
-      </c>
     </row>
-    <row r="47" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43399.627083333333</v>
       </c>
@@ -52175,7 +52165,7 @@
         <v>2173</v>
       </c>
       <c r="D47" t="s">
-        <v>6948</v>
+        <v>6946</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -52190,7 +52180,7 @@
         <v>43399.875</v>
       </c>
       <c r="I47" t="s">
-        <v>6949</v>
+        <v>6947</v>
       </c>
       <c r="N47">
         <v>37.750900270000002</v>
@@ -52205,7 +52195,7 @@
         <v>6074</v>
       </c>
       <c r="R47" t="s">
-        <v>6950</v>
+        <v>6948</v>
       </c>
       <c r="S47" t="s">
         <v>6084</v>
@@ -52226,16 +52216,16 @@
         <v>6088</v>
       </c>
       <c r="Y47" t="s">
-        <v>6950</v>
+        <v>6948</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>6951</v>
+        <v>6949</v>
       </c>
       <c r="AA47" t="s">
         <v>6090</v>
       </c>
       <c r="AB47" t="s">
-        <v>6952</v>
+        <v>6950</v>
       </c>
       <c r="AH47" t="s">
         <v>6076</v>
@@ -52253,7 +52243,7 @@
         <v>43221</v>
       </c>
       <c r="AP47" t="s">
-        <v>6953</v>
+        <v>6951</v>
       </c>
       <c r="AQ47" t="s">
         <v>6076</v>
@@ -52274,7 +52264,7 @@
         <v>250</v>
       </c>
       <c r="EJ47" t="s">
-        <v>6954</v>
+        <v>6952</v>
       </c>
       <c r="EK47" t="s">
         <v>6163</v>
@@ -52286,13 +52276,13 @@
         <v>6076</v>
       </c>
       <c r="EN47" t="s">
-        <v>6955</v>
+        <v>6953</v>
       </c>
       <c r="EP47">
         <v>16</v>
       </c>
       <c r="EQ47" t="s">
-        <v>6956</v>
+        <v>6954</v>
       </c>
       <c r="ER47" t="s">
         <v>6167</v>
@@ -52310,16 +52300,16 @@
         <v>6169</v>
       </c>
       <c r="EY47" t="s">
-        <v>6957</v>
+        <v>6955</v>
       </c>
       <c r="EZ47" t="s">
-        <v>6958</v>
+        <v>6956</v>
       </c>
       <c r="FB47" t="s">
         <v>6163</v>
       </c>
       <c r="FC47" t="s">
-        <v>6959</v>
+        <v>6957</v>
       </c>
       <c r="ML47" t="s">
         <v>6174</v>
@@ -52364,10 +52354,10 @@
         <v>6076</v>
       </c>
       <c r="BOA47" t="s">
-        <v>6960</v>
+        <v>6958</v>
       </c>
       <c r="BOB47" t="s">
-        <v>6961</v>
+        <v>6959</v>
       </c>
       <c r="BRP47" t="s">
         <v>6182</v>
@@ -52376,7 +52366,7 @@
         <v>6243</v>
       </c>
       <c r="BRT47" t="s">
-        <v>6962</v>
+        <v>6960</v>
       </c>
       <c r="BTN47" t="s">
         <v>6261</v>
@@ -52436,10 +52426,10 @@
         <v>6076</v>
       </c>
       <c r="CDX47" t="s">
-        <v>6963</v>
+        <v>6961</v>
       </c>
     </row>
-    <row r="48" spans="1:390 1736:1998 2156:2162" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:390 1736:1998 2156:2162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43399.863194444442</v>
       </c>
@@ -52450,7 +52440,7 @@
         <v>2173</v>
       </c>
       <c r="D48" t="s">
-        <v>6964</v>
+        <v>6962</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -52465,7 +52455,7 @@
         <v>43399.904166666667</v>
       </c>
       <c r="I48" t="s">
-        <v>6965</v>
+        <v>6963</v>
       </c>
       <c r="N48">
         <v>42.529693600000002</v>
@@ -52480,37 +52470,37 @@
         <v>6074</v>
       </c>
       <c r="R48" t="s">
-        <v>6966</v>
+        <v>6964</v>
       </c>
       <c r="S48" t="s">
-        <v>6967</v>
+        <v>6965</v>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
       <c r="U48" t="s">
+        <v>6966</v>
+      </c>
+      <c r="V48" t="s">
+        <v>6967</v>
+      </c>
+      <c r="W48" t="s">
         <v>6968</v>
       </c>
-      <c r="V48" t="s">
+      <c r="X48" t="s">
         <v>6969</v>
       </c>
-      <c r="W48" t="s">
+      <c r="Y48" t="s">
+        <v>6964</v>
+      </c>
+      <c r="Z48" s="1" t="s">
         <v>6970</v>
-      </c>
-      <c r="X48" t="s">
-        <v>6971</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>6966</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>6972</v>
       </c>
       <c r="AA48" t="s">
         <v>6090</v>
       </c>
       <c r="AB48" t="s">
-        <v>6973</v>
+        <v>6971</v>
       </c>
       <c r="AH48" t="s">
         <v>6163</v>
@@ -52522,13 +52512,13 @@
         <v>6416</v>
       </c>
       <c r="AN48" t="s">
-        <v>6967</v>
+        <v>6965</v>
       </c>
       <c r="AO48" t="s">
-        <v>6974</v>
+        <v>6972</v>
       </c>
       <c r="AP48" t="s">
-        <v>6975</v>
+        <v>6973</v>
       </c>
       <c r="AQ48" t="s">
         <v>6076</v>
@@ -52543,13 +52533,13 @@
         <v>20</v>
       </c>
       <c r="AV48" t="s">
+        <v>6974</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>6975</v>
+      </c>
+      <c r="EJ48" s="1" t="s">
         <v>6976</v>
-      </c>
-      <c r="AW48" t="s">
-        <v>6977</v>
-      </c>
-      <c r="EJ48" s="1" t="s">
-        <v>6978</v>
       </c>
       <c r="EK48" t="s">
         <v>6163</v>
@@ -52561,13 +52551,13 @@
         <v>6163</v>
       </c>
       <c r="EN48" t="s">
+        <v>6977</v>
+      </c>
+      <c r="EP48" t="s">
+        <v>6978</v>
+      </c>
+      <c r="EQ48" t="s">
         <v>6979</v>
-      </c>
-      <c r="EP48" t="s">
-        <v>6980</v>
-      </c>
-      <c r="EQ48" t="s">
-        <v>6981</v>
       </c>
       <c r="ER48" t="s">
         <v>6167</v>
@@ -52585,22 +52575,22 @@
         <v>6169</v>
       </c>
       <c r="EY48" t="s">
+        <v>6980</v>
+      </c>
+      <c r="EZ48" s="1" t="s">
+        <v>6981</v>
+      </c>
+      <c r="FA48" s="1" t="s">
         <v>6982</v>
-      </c>
-      <c r="EZ48" s="1" t="s">
-        <v>6983</v>
-      </c>
-      <c r="FA48" s="1" t="s">
-        <v>6984</v>
       </c>
       <c r="FB48" t="s">
         <v>6482</v>
       </c>
       <c r="FC48" s="1" t="s">
-        <v>6985</v>
+        <v>6983</v>
       </c>
       <c r="FD48" t="s">
-        <v>6986</v>
+        <v>6984</v>
       </c>
       <c r="ML48" t="s">
         <v>6175</v>
@@ -52627,7 +52617,7 @@
         <v>6173</v>
       </c>
       <c r="MU48" t="s">
-        <v>6987</v>
+        <v>6985</v>
       </c>
       <c r="BNT48" t="s">
         <v>6076</v>
@@ -52648,10 +52638,10 @@
         <v>6163</v>
       </c>
       <c r="BOA48" t="s">
-        <v>6988</v>
+        <v>6986</v>
       </c>
       <c r="BOB48" t="s">
-        <v>6989</v>
+        <v>6987</v>
       </c>
       <c r="BRP48" t="s">
         <v>6182</v>
@@ -52660,10 +52650,10 @@
         <v>6461</v>
       </c>
       <c r="BRS48" t="s">
-        <v>6990</v>
+        <v>6988</v>
       </c>
       <c r="BRT48" t="s">
-        <v>6991</v>
+        <v>6989</v>
       </c>
       <c r="BTN48" t="s">
         <v>6261</v>
@@ -52690,7 +52680,7 @@
         <v>6261</v>
       </c>
       <c r="BTV48" t="s">
-        <v>6992</v>
+        <v>6990</v>
       </c>
       <c r="BXJ48" t="s">
         <v>6076</v>
@@ -52726,16 +52716,16 @@
         <v>6076</v>
       </c>
       <c r="CDX48" t="s">
+        <v>6991</v>
+      </c>
+      <c r="CDY48" t="s">
+        <v>6992</v>
+      </c>
+      <c r="CDZ48" t="s">
         <v>6993</v>
       </c>
-      <c r="CDY48" t="s">
-        <v>6994</v>
-      </c>
-      <c r="CDZ48" t="s">
-        <v>6995</v>
-      </c>
     </row>
-    <row r="49" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43402.5</v>
       </c>
@@ -52746,7 +52736,7 @@
         <v>2173</v>
       </c>
       <c r="D49" t="s">
-        <v>6996</v>
+        <v>6994</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -52761,7 +52751,7 @@
         <v>43402.502083333333</v>
       </c>
       <c r="I49" t="s">
-        <v>6997</v>
+        <v>6995</v>
       </c>
       <c r="N49">
         <v>44.563797000000001</v>
@@ -52776,40 +52766,40 @@
         <v>6074</v>
       </c>
       <c r="R49" t="s">
-        <v>6998</v>
+        <v>6996</v>
       </c>
       <c r="S49" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="U49" t="s">
+        <v>6998</v>
+      </c>
+      <c r="V49" t="s">
+        <v>6999</v>
+      </c>
+      <c r="W49" t="s">
         <v>7000</v>
       </c>
-      <c r="V49" t="s">
+      <c r="X49" t="s">
         <v>7001</v>
       </c>
-      <c r="W49" t="s">
+      <c r="Y49" t="s">
         <v>7002</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Z49" s="1" t="s">
         <v>7003</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>7004</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>7005</v>
       </c>
       <c r="AA49" t="s">
         <v>6102</v>
       </c>
       <c r="AB49" t="s">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="AC49" t="s">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="AD49" t="s">
         <v>6120</v>
@@ -52818,10 +52808,10 @@
         <v>97845</v>
       </c>
       <c r="AF49" t="s">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="AG49" t="s">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="AH49" t="s">
         <v>6076</v>
@@ -52833,13 +52823,13 @@
         <v>6416</v>
       </c>
       <c r="AN49" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="AO49" t="s">
-        <v>7009</v>
+        <v>7007</v>
       </c>
       <c r="AP49" t="s">
-        <v>7010</v>
+        <v>7008</v>
       </c>
       <c r="AQ49" t="s">
         <v>6076</v>
@@ -52860,7 +52850,7 @@
         <v>45</v>
       </c>
       <c r="EJ49" t="s">
-        <v>7011</v>
+        <v>7009</v>
       </c>
       <c r="EK49" t="s">
         <v>6163</v>
@@ -52878,16 +52868,16 @@
         <v>26</v>
       </c>
       <c r="EQ49" t="s">
-        <v>7012</v>
+        <v>7010</v>
       </c>
       <c r="ER49" t="s">
         <v>6167</v>
       </c>
       <c r="ET49" t="s">
-        <v>7013</v>
+        <v>7011</v>
       </c>
       <c r="EU49" t="s">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="EV49">
         <v>110</v>
@@ -52899,22 +52889,22 @@
         <v>6169</v>
       </c>
       <c r="EY49" t="s">
+        <v>7013</v>
+      </c>
+      <c r="EZ49" t="s">
+        <v>7014</v>
+      </c>
+      <c r="FA49" t="s">
         <v>7015</v>
-      </c>
-      <c r="EZ49" t="s">
-        <v>7016</v>
-      </c>
-      <c r="FA49" t="s">
-        <v>7017</v>
       </c>
       <c r="FB49" t="s">
         <v>6536</v>
       </c>
       <c r="FC49" t="s">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="FD49" t="s">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="ML49" t="s">
         <v>6175</v>
@@ -52944,7 +52934,7 @@
         <v>6175</v>
       </c>
       <c r="MU49" t="s">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="BNT49" t="s">
         <v>6076</v>
@@ -52965,19 +52955,19 @@
         <v>6076</v>
       </c>
       <c r="BOA49" t="s">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="BOB49" t="s">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="BRP49" t="s">
         <v>6272</v>
       </c>
       <c r="BRR49" t="s">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="BRT49" t="s">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="BTN49" t="s">
         <v>6463</v>
@@ -53040,19 +53030,19 @@
         <v>6076</v>
       </c>
       <c r="BXV49" t="s">
+        <v>7023</v>
+      </c>
+      <c r="CDX49" t="s">
+        <v>7024</v>
+      </c>
+      <c r="CDY49" t="s">
         <v>7025</v>
       </c>
-      <c r="CDX49" t="s">
+      <c r="CDZ49" t="s">
         <v>7026</v>
       </c>
-      <c r="CDY49" t="s">
-        <v>7027</v>
-      </c>
-      <c r="CDZ49" t="s">
-        <v>7028</v>
-      </c>
     </row>
-    <row r="50" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43382.661111111112</v>
       </c>
@@ -53063,7 +53053,7 @@
         <v>2173</v>
       </c>
       <c r="D50" t="s">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -53078,7 +53068,7 @@
         <v>43402.531944444447</v>
       </c>
       <c r="I50" t="s">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="N50">
         <v>44.92250061</v>
@@ -53093,37 +53083,37 @@
         <v>6074</v>
       </c>
       <c r="R50" t="s">
-        <v>7031</v>
+        <v>7029</v>
       </c>
       <c r="S50" t="s">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="T50">
         <v>1</v>
       </c>
       <c r="U50" t="s">
+        <v>7031</v>
+      </c>
+      <c r="V50" t="s">
+        <v>7032</v>
+      </c>
+      <c r="W50" t="s">
         <v>7033</v>
       </c>
-      <c r="V50" t="s">
+      <c r="X50" t="s">
         <v>7034</v>
       </c>
-      <c r="W50" t="s">
+      <c r="Y50" t="s">
         <v>7035</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Z50" t="s">
         <v>7036</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>7037</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>7038</v>
       </c>
       <c r="AA50" t="s">
         <v>6090</v>
       </c>
       <c r="AB50" t="s">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="AH50" t="s">
         <v>6076</v>
@@ -53135,13 +53125,13 @@
         <v>6416</v>
       </c>
       <c r="AN50" t="s">
+        <v>7038</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>7039</v>
+      </c>
+      <c r="AP50" t="s">
         <v>7040</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>7041</v>
-      </c>
-      <c r="AP50" t="s">
-        <v>7042</v>
       </c>
       <c r="AQ50" t="s">
         <v>6076</v>
@@ -53156,13 +53146,13 @@
         <v>10</v>
       </c>
       <c r="AV50" t="s">
+        <v>7041</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>7042</v>
+      </c>
+      <c r="EJ50" t="s">
         <v>7043</v>
-      </c>
-      <c r="AW50" t="s">
-        <v>7044</v>
-      </c>
-      <c r="EJ50" t="s">
-        <v>7045</v>
       </c>
       <c r="EK50" t="s">
         <v>6076</v>
@@ -53177,10 +53167,10 @@
         <v>6366</v>
       </c>
       <c r="EP50" t="s">
-        <v>7046</v>
+        <v>7044</v>
       </c>
       <c r="EQ50" t="s">
-        <v>7047</v>
+        <v>7045</v>
       </c>
       <c r="ER50" t="s">
         <v>6167</v>
@@ -53189,28 +53179,28 @@
         <v>6168</v>
       </c>
       <c r="EV50" t="s">
-        <v>7048</v>
+        <v>7046</v>
       </c>
       <c r="EW50" t="s">
-        <v>7049</v>
+        <v>7047</v>
       </c>
       <c r="EX50" t="s">
         <v>6169</v>
       </c>
       <c r="EY50" t="s">
+        <v>7048</v>
+      </c>
+      <c r="EZ50" t="s">
+        <v>7049</v>
+      </c>
+      <c r="FA50" t="s">
         <v>7050</v>
       </c>
-      <c r="EZ50" t="s">
+      <c r="FB50" t="s">
         <v>7051</v>
       </c>
-      <c r="FA50" t="s">
+      <c r="FC50" t="s">
         <v>7052</v>
-      </c>
-      <c r="FB50" t="s">
-        <v>7053</v>
-      </c>
-      <c r="FC50" t="s">
-        <v>7054</v>
       </c>
       <c r="ML50" t="s">
         <v>6174</v>
@@ -53246,7 +53236,7 @@
         <v>6146</v>
       </c>
       <c r="BNW50" t="s">
-        <v>7055</v>
+        <v>7053</v>
       </c>
       <c r="BNX50" t="s">
         <v>6076</v>
@@ -53258,10 +53248,10 @@
         <v>6163</v>
       </c>
       <c r="BOA50" t="s">
-        <v>7056</v>
+        <v>7054</v>
       </c>
       <c r="BOB50" t="s">
-        <v>7057</v>
+        <v>7055</v>
       </c>
       <c r="BRP50" t="s">
         <v>6182</v>
@@ -53270,7 +53260,7 @@
         <v>6847</v>
       </c>
       <c r="BRT50" t="s">
-        <v>7058</v>
+        <v>7056</v>
       </c>
       <c r="BTN50" t="s">
         <v>6261</v>
@@ -53297,7 +53287,7 @@
         <v>6261</v>
       </c>
       <c r="BTV50" t="s">
-        <v>7059</v>
+        <v>7057</v>
       </c>
       <c r="BXJ50" t="s">
         <v>6076</v>
@@ -53333,16 +53323,16 @@
         <v>6076</v>
       </c>
       <c r="CDX50" t="s">
+        <v>7058</v>
+      </c>
+      <c r="CDY50" t="s">
+        <v>7059</v>
+      </c>
+      <c r="CDZ50" t="s">
         <v>7060</v>
       </c>
-      <c r="CDY50" t="s">
-        <v>7061</v>
-      </c>
-      <c r="CDZ50" t="s">
-        <v>7062</v>
-      </c>
     </row>
-    <row r="51" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43402.613888888889</v>
       </c>
@@ -53365,7 +53355,7 @@
         <v>43402.615277777775</v>
       </c>
       <c r="I51" t="s">
-        <v>7063</v>
+        <v>7061</v>
       </c>
       <c r="N51">
         <v>44.018493650000003</v>
@@ -53380,7 +53370,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="52" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43402.723611111112</v>
       </c>
@@ -53391,7 +53381,7 @@
         <v>2173</v>
       </c>
       <c r="D52" t="s">
-        <v>7064</v>
+        <v>7062</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -53406,7 +53396,7 @@
         <v>43402.729166666664</v>
       </c>
       <c r="I52" t="s">
-        <v>7065</v>
+        <v>7063</v>
       </c>
       <c r="N52">
         <v>37.751007080000001</v>
@@ -53421,37 +53411,37 @@
         <v>6074</v>
       </c>
       <c r="R52" t="s">
+        <v>7064</v>
+      </c>
+      <c r="S52" t="s">
+        <v>7065</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
         <v>7066</v>
       </c>
-      <c r="S52" t="s">
+      <c r="V52" t="s">
         <v>7067</v>
       </c>
-      <c r="T52" t="s">
-        <v>6907</v>
-      </c>
-      <c r="U52" t="s">
+      <c r="W52" t="s">
         <v>7068</v>
       </c>
-      <c r="V52" t="s">
+      <c r="X52" t="s">
         <v>7069</v>
       </c>
-      <c r="W52" t="s">
+      <c r="Y52" t="s">
+        <v>7064</v>
+      </c>
+      <c r="Z52" s="1" t="s">
         <v>7070</v>
-      </c>
-      <c r="X52" t="s">
-        <v>7071</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>7066</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>7072</v>
       </c>
       <c r="AA52" t="s">
         <v>6090</v>
       </c>
       <c r="AB52" t="s">
-        <v>7073</v>
+        <v>7071</v>
       </c>
       <c r="AH52" t="s">
         <v>6076</v>
@@ -53463,7 +53453,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="53" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43402.719444444447</v>
       </c>
@@ -53474,7 +53464,7 @@
         <v>2173</v>
       </c>
       <c r="D53" t="s">
-        <v>7074</v>
+        <v>7072</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -53489,7 +53479,7 @@
         <v>43402.743055555555</v>
       </c>
       <c r="I53" t="s">
-        <v>7075</v>
+        <v>7073</v>
       </c>
       <c r="N53">
         <v>44.531600949999998</v>
@@ -53504,37 +53494,37 @@
         <v>6074</v>
       </c>
       <c r="R53" t="s">
-        <v>7076</v>
+        <v>7074</v>
       </c>
       <c r="S53" t="s">
-        <v>7077</v>
+        <v>7075</v>
       </c>
       <c r="T53">
         <v>1</v>
       </c>
       <c r="U53" t="s">
+        <v>7076</v>
+      </c>
+      <c r="V53" t="s">
+        <v>7077</v>
+      </c>
+      <c r="W53" t="s">
         <v>7078</v>
       </c>
-      <c r="V53" t="s">
+      <c r="X53" t="s">
         <v>7079</v>
       </c>
-      <c r="W53" t="s">
+      <c r="Y53" t="s">
         <v>7080</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Z53" s="1" t="s">
         <v>7081</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>7082</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>7083</v>
       </c>
       <c r="AA53" t="s">
         <v>6090</v>
       </c>
       <c r="AB53" t="s">
-        <v>7084</v>
+        <v>7082</v>
       </c>
       <c r="AH53" t="s">
         <v>6076</v>
@@ -53546,13 +53536,13 @@
         <v>6078</v>
       </c>
       <c r="AN53" t="s">
-        <v>7077</v>
+        <v>7075</v>
       </c>
       <c r="AO53" t="s">
-        <v>7085</v>
+        <v>7083</v>
       </c>
       <c r="AP53" t="s">
-        <v>7086</v>
+        <v>7084</v>
       </c>
       <c r="AQ53" t="s">
         <v>6076</v>
@@ -53567,13 +53557,13 @@
         <v>0</v>
       </c>
       <c r="AV53" t="s">
+        <v>7085</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>7086</v>
+      </c>
+      <c r="EJ53" t="s">
         <v>7087</v>
-      </c>
-      <c r="AW53" t="s">
-        <v>7088</v>
-      </c>
-      <c r="EJ53" t="s">
-        <v>7089</v>
       </c>
       <c r="EK53" t="s">
         <v>6076</v>
@@ -53591,13 +53581,13 @@
         <v>205</v>
       </c>
       <c r="EQ53" t="s">
-        <v>7090</v>
+        <v>7088</v>
       </c>
       <c r="ER53" t="s">
         <v>6146</v>
       </c>
       <c r="ES53" t="s">
-        <v>7091</v>
+        <v>7089</v>
       </c>
       <c r="ET53" t="s">
         <v>6235</v>
@@ -53612,19 +53602,19 @@
         <v>6169</v>
       </c>
       <c r="EY53" t="s">
+        <v>7090</v>
+      </c>
+      <c r="EZ53" t="s">
+        <v>7091</v>
+      </c>
+      <c r="FA53" t="s">
         <v>7092</v>
       </c>
-      <c r="EZ53" t="s">
+      <c r="FB53" t="s">
         <v>7093</v>
       </c>
-      <c r="FA53" t="s">
+      <c r="FC53" t="s">
         <v>7094</v>
-      </c>
-      <c r="FB53" t="s">
-        <v>7095</v>
-      </c>
-      <c r="FC53" t="s">
-        <v>7096</v>
       </c>
       <c r="ML53" t="s">
         <v>6174</v>
@@ -53666,19 +53656,19 @@
         <v>6163</v>
       </c>
       <c r="BOA53" t="s">
-        <v>7097</v>
+        <v>7095</v>
       </c>
       <c r="BOB53" t="s">
-        <v>7098</v>
+        <v>7096</v>
       </c>
       <c r="BRP53" t="s">
         <v>6272</v>
       </c>
       <c r="BRR53" t="s">
-        <v>7099</v>
+        <v>7097</v>
       </c>
       <c r="BRT53" t="s">
-        <v>7100</v>
+        <v>7098</v>
       </c>
       <c r="BTN53" t="s">
         <v>6261</v>
@@ -53741,7 +53731,7 @@
         <v>6477</v>
       </c>
     </row>
-    <row r="54" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43402.736111111109</v>
       </c>
@@ -53752,7 +53742,7 @@
         <v>2173</v>
       </c>
       <c r="D54" t="s">
-        <v>7101</v>
+        <v>7099</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -53767,7 +53757,7 @@
         <v>43402.757638888892</v>
       </c>
       <c r="I54" t="s">
-        <v>7102</v>
+        <v>7100</v>
       </c>
       <c r="N54">
         <v>42.336303710000003</v>
@@ -53785,7 +53775,7 @@
         <v>6214</v>
       </c>
       <c r="S54" t="s">
-        <v>7103</v>
+        <v>7101</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -53797,7 +53787,7 @@
         <v>6211</v>
       </c>
       <c r="W54" t="s">
-        <v>7104</v>
+        <v>7102</v>
       </c>
       <c r="X54" t="s">
         <v>6213</v>
@@ -53806,16 +53796,16 @@
         <v>6214</v>
       </c>
       <c r="Z54" t="s">
-        <v>7105</v>
+        <v>7103</v>
       </c>
       <c r="AA54" t="s">
         <v>6102</v>
       </c>
       <c r="AB54" t="s">
-        <v>7106</v>
+        <v>7104</v>
       </c>
       <c r="AC54" t="s">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="AD54" t="s">
         <v>6105</v>
@@ -53827,7 +53817,7 @@
         <v>6528</v>
       </c>
       <c r="AG54" t="s">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="AH54" t="s">
         <v>6076</v>
@@ -53839,13 +53829,13 @@
         <v>6148</v>
       </c>
       <c r="AN54" t="s">
-        <v>7108</v>
+        <v>7106</v>
       </c>
       <c r="AO54" t="s">
-        <v>7109</v>
+        <v>7107</v>
       </c>
       <c r="AP54" t="s">
-        <v>7109</v>
+        <v>7107</v>
       </c>
       <c r="AQ54" t="s">
         <v>6076</v>
@@ -53866,7 +53856,7 @@
         <v>800</v>
       </c>
       <c r="EJ54" t="s">
-        <v>7110</v>
+        <v>7108</v>
       </c>
       <c r="EK54" t="s">
         <v>6076</v>
@@ -53875,10 +53865,10 @@
         <v>6646</v>
       </c>
       <c r="EP54" t="s">
-        <v>7111</v>
+        <v>7109</v>
       </c>
       <c r="EQ54" t="s">
-        <v>7112</v>
+        <v>7110</v>
       </c>
       <c r="ER54" t="s">
         <v>6167</v>
@@ -53896,22 +53886,22 @@
         <v>6169</v>
       </c>
       <c r="EY54" t="s">
+        <v>7111</v>
+      </c>
+      <c r="EZ54" t="s">
+        <v>7112</v>
+      </c>
+      <c r="FA54" t="s">
         <v>7113</v>
       </c>
-      <c r="EZ54" t="s">
+      <c r="FB54" t="s">
         <v>7114</v>
       </c>
-      <c r="FA54" t="s">
+      <c r="FC54" t="s">
         <v>7115</v>
       </c>
-      <c r="FB54" t="s">
+      <c r="FD54" t="s">
         <v>7116</v>
-      </c>
-      <c r="FC54" t="s">
-        <v>7117</v>
-      </c>
-      <c r="FD54" t="s">
-        <v>7118</v>
       </c>
       <c r="ML54" t="s">
         <v>6175</v>
@@ -53953,19 +53943,19 @@
         <v>6076</v>
       </c>
       <c r="BOA54" t="s">
-        <v>7119</v>
+        <v>7117</v>
       </c>
       <c r="BOB54" t="s">
         <v>6181</v>
       </c>
       <c r="BRP54" t="s">
+        <v>7118</v>
+      </c>
+      <c r="BRR54" t="s">
+        <v>7119</v>
+      </c>
+      <c r="BRT54" t="s">
         <v>7120</v>
-      </c>
-      <c r="BRR54" t="s">
-        <v>7121</v>
-      </c>
-      <c r="BRT54" t="s">
-        <v>7122</v>
       </c>
       <c r="BTN54" t="s">
         <v>6185</v>
@@ -53992,10 +53982,10 @@
         <v>6185</v>
       </c>
       <c r="BTV54" t="s">
-        <v>7123</v>
+        <v>7121</v>
       </c>
       <c r="BTW54" t="s">
-        <v>7124</v>
+        <v>7122</v>
       </c>
       <c r="BXJ54" t="s">
         <v>6076</v>
@@ -54034,19 +54024,19 @@
         <v>6076</v>
       </c>
       <c r="BXV54" t="s">
+        <v>7123</v>
+      </c>
+      <c r="CDX54" t="s">
+        <v>7124</v>
+      </c>
+      <c r="CDY54" t="s">
         <v>7125</v>
       </c>
-      <c r="CDX54" t="s">
+      <c r="CDZ54" t="s">
         <v>7126</v>
       </c>
-      <c r="CDY54" t="s">
-        <v>7127</v>
-      </c>
-      <c r="CDZ54" t="s">
-        <v>7128</v>
-      </c>
     </row>
-    <row r="55" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43402.98541666667</v>
       </c>
@@ -54057,7 +54047,7 @@
         <v>2173</v>
       </c>
       <c r="D55" t="s">
-        <v>7129</v>
+        <v>7127</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -54072,7 +54062,7 @@
         <v>43402.988194444442</v>
       </c>
       <c r="I55" t="s">
-        <v>7130</v>
+        <v>7128</v>
       </c>
       <c r="N55">
         <v>45.337707520000002</v>
@@ -54087,37 +54077,37 @@
         <v>6074</v>
       </c>
       <c r="R55" t="s">
+        <v>7129</v>
+      </c>
+      <c r="S55" t="s">
+        <v>7130</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
         <v>7131</v>
       </c>
-      <c r="S55" t="s">
+      <c r="V55" t="s">
         <v>7132</v>
       </c>
-      <c r="T55" t="s">
+      <c r="W55" t="s">
         <v>7133</v>
       </c>
-      <c r="U55" t="s">
+      <c r="X55" t="s">
         <v>7134</v>
       </c>
-      <c r="V55" t="s">
+      <c r="Y55" t="s">
+        <v>7129</v>
+      </c>
+      <c r="Z55" t="s">
         <v>7135</v>
-      </c>
-      <c r="W55" t="s">
-        <v>7136</v>
-      </c>
-      <c r="X55" t="s">
-        <v>7137</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>7131</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>7138</v>
       </c>
       <c r="AA55" t="s">
         <v>6090</v>
       </c>
       <c r="AB55" t="s">
-        <v>7139</v>
+        <v>7136</v>
       </c>
       <c r="AH55" t="s">
         <v>6163</v>
@@ -54129,7 +54119,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="56" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43403.456250000003</v>
       </c>
@@ -54140,7 +54130,7 @@
         <v>2173</v>
       </c>
       <c r="D56" t="s">
-        <v>7140</v>
+        <v>7137</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -54155,7 +54145,7 @@
         <v>43403.50277777778</v>
       </c>
       <c r="I56" t="s">
-        <v>7141</v>
+        <v>7138</v>
       </c>
       <c r="N56">
         <v>45.84500122</v>
@@ -54170,40 +54160,40 @@
         <v>6074</v>
       </c>
       <c r="R56" t="s">
-        <v>7142</v>
+        <v>7139</v>
       </c>
       <c r="S56" t="s">
-        <v>7143</v>
+        <v>7140</v>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
       <c r="U56" t="s">
+        <v>7141</v>
+      </c>
+      <c r="V56" t="s">
+        <v>7142</v>
+      </c>
+      <c r="W56" t="s">
+        <v>7143</v>
+      </c>
+      <c r="X56" t="s">
         <v>7144</v>
       </c>
-      <c r="V56" t="s">
+      <c r="Y56" t="s">
         <v>7145</v>
       </c>
-      <c r="W56" t="s">
+      <c r="Z56" s="1" t="s">
         <v>7146</v>
-      </c>
-      <c r="X56" t="s">
-        <v>7147</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>7148</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>7149</v>
       </c>
       <c r="AA56" t="s">
         <v>6102</v>
       </c>
       <c r="AB56" t="s">
-        <v>7150</v>
+        <v>7147</v>
       </c>
       <c r="AC56" t="s">
-        <v>7151</v>
+        <v>7148</v>
       </c>
       <c r="AD56" t="s">
         <v>6105</v>
@@ -54215,7 +54205,7 @@
         <v>6860</v>
       </c>
       <c r="AG56" t="s">
-        <v>7151</v>
+        <v>7148</v>
       </c>
       <c r="AH56" t="s">
         <v>6076</v>
@@ -54227,19 +54217,19 @@
         <v>6078</v>
       </c>
       <c r="AN56" t="s">
-        <v>7152</v>
+        <v>7149</v>
       </c>
       <c r="AO56" t="s">
-        <v>7153</v>
+        <v>7150</v>
       </c>
       <c r="AP56" t="s">
-        <v>7153</v>
+        <v>7150</v>
       </c>
       <c r="AQ56" t="s">
         <v>6076</v>
       </c>
       <c r="AR56" t="s">
-        <v>7154</v>
+        <v>7151</v>
       </c>
       <c r="AS56">
         <v>40</v>
@@ -54269,10 +54259,10 @@
         <v>6366</v>
       </c>
       <c r="EP56" t="s">
-        <v>7155</v>
+        <v>7152</v>
       </c>
       <c r="EQ56" t="s">
-        <v>7156</v>
+        <v>7153</v>
       </c>
       <c r="ER56" t="s">
         <v>6611</v>
@@ -54290,19 +54280,19 @@
         <v>6169</v>
       </c>
       <c r="EZ56" t="s">
-        <v>7157</v>
+        <v>7154</v>
       </c>
       <c r="FA56" t="s">
-        <v>7158</v>
+        <v>7155</v>
       </c>
       <c r="FB56" t="s">
         <v>6163</v>
       </c>
       <c r="FC56" t="s">
-        <v>7159</v>
+        <v>7156</v>
       </c>
       <c r="FD56" t="s">
-        <v>7160</v>
+        <v>7157</v>
       </c>
       <c r="ML56" t="s">
         <v>6173</v>
@@ -54347,19 +54337,19 @@
         <v>6076</v>
       </c>
       <c r="BOA56" t="s">
-        <v>7161</v>
+        <v>7158</v>
       </c>
       <c r="BOB56" t="s">
-        <v>7162</v>
+        <v>7159</v>
       </c>
       <c r="BRP56" t="s">
         <v>6314</v>
       </c>
       <c r="BRR56" t="s">
-        <v>7163</v>
+        <v>7160</v>
       </c>
       <c r="BRT56" t="s">
-        <v>7164</v>
+        <v>7161</v>
       </c>
       <c r="BTN56" t="s">
         <v>6185</v>
@@ -54374,7 +54364,7 @@
         <v>6185</v>
       </c>
       <c r="BTV56" t="s">
-        <v>7165</v>
+        <v>7162</v>
       </c>
       <c r="BXJ56" t="s">
         <v>6076</v>
@@ -54410,13 +54400,13 @@
         <v>6163</v>
       </c>
       <c r="CDX56" t="s">
-        <v>7166</v>
+        <v>7163</v>
       </c>
       <c r="CDY56" t="s">
-        <v>7167</v>
+        <v>7164</v>
       </c>
     </row>
-    <row r="57" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43403.465277777781</v>
       </c>
@@ -54427,7 +54417,7 @@
         <v>2173</v>
       </c>
       <c r="D57" t="s">
-        <v>7168</v>
+        <v>7165</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -54442,7 +54432,7 @@
         <v>43403.509027777778</v>
       </c>
       <c r="I57" t="s">
-        <v>7169</v>
+        <v>7166</v>
       </c>
       <c r="N57">
         <v>45.287200929999997</v>
@@ -54457,37 +54447,37 @@
         <v>6074</v>
       </c>
       <c r="R57" t="s">
-        <v>7170</v>
+        <v>7167</v>
       </c>
       <c r="S57" t="s">
-        <v>7171</v>
+        <v>7168</v>
       </c>
       <c r="T57">
         <v>1</v>
       </c>
       <c r="U57" t="s">
+        <v>7169</v>
+      </c>
+      <c r="V57" t="s">
+        <v>7170</v>
+      </c>
+      <c r="W57" t="s">
+        <v>7171</v>
+      </c>
+      <c r="X57" t="s">
         <v>7172</v>
       </c>
-      <c r="V57" t="s">
+      <c r="Y57" t="s">
+        <v>7167</v>
+      </c>
+      <c r="Z57" t="s">
         <v>7173</v>
-      </c>
-      <c r="W57" t="s">
-        <v>7174</v>
-      </c>
-      <c r="X57" t="s">
-        <v>7175</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>7170</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>7176</v>
       </c>
       <c r="AA57" t="s">
         <v>6090</v>
       </c>
       <c r="AB57" t="s">
-        <v>7177</v>
+        <v>7174</v>
       </c>
       <c r="AH57" t="s">
         <v>6076</v>
@@ -54499,7 +54489,7 @@
         <v>6078</v>
       </c>
       <c r="AN57" t="s">
-        <v>7171</v>
+        <v>7168</v>
       </c>
       <c r="AO57">
         <v>96</v>
@@ -54520,7 +54510,7 @@
         <v>0</v>
       </c>
       <c r="EJ57" s="1" t="s">
-        <v>7178</v>
+        <v>7175</v>
       </c>
       <c r="EK57" t="s">
         <v>6076</v>
@@ -54535,10 +54525,10 @@
         <v>6479</v>
       </c>
       <c r="EP57" t="s">
-        <v>7179</v>
+        <v>7176</v>
       </c>
       <c r="EQ57" t="s">
-        <v>7180</v>
+        <v>7177</v>
       </c>
       <c r="ER57" t="s">
         <v>6611</v>
@@ -54547,7 +54537,7 @@
         <v>200</v>
       </c>
       <c r="EW57" t="s">
-        <v>7181</v>
+        <v>7178</v>
       </c>
       <c r="EX57" t="s">
         <v>6169</v>
@@ -54556,19 +54546,19 @@
         <v>7</v>
       </c>
       <c r="EZ57" s="1" t="s">
+        <v>7179</v>
+      </c>
+      <c r="FA57" t="s">
+        <v>7180</v>
+      </c>
+      <c r="FB57" t="s">
+        <v>7181</v>
+      </c>
+      <c r="FC57" t="s">
         <v>7182</v>
       </c>
-      <c r="FA57" t="s">
+      <c r="FD57" t="s">
         <v>7183</v>
-      </c>
-      <c r="FB57" t="s">
-        <v>7184</v>
-      </c>
-      <c r="FC57" t="s">
-        <v>7185</v>
-      </c>
-      <c r="FD57" t="s">
-        <v>7186</v>
       </c>
       <c r="ML57" t="s">
         <v>6176</v>
@@ -54613,7 +54603,7 @@
         <v>6163</v>
       </c>
       <c r="BOA57" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="BOB57" t="s">
         <v>6875</v>
@@ -54625,7 +54615,7 @@
         <v>6540</v>
       </c>
       <c r="BRT57" t="s">
-        <v>7188</v>
+        <v>7185</v>
       </c>
       <c r="BTN57" t="s">
         <v>6261</v>
@@ -54652,10 +54642,10 @@
         <v>6185</v>
       </c>
       <c r="BTV57" t="s">
-        <v>7189</v>
+        <v>7186</v>
       </c>
       <c r="BTW57" t="s">
-        <v>7190</v>
+        <v>7187</v>
       </c>
       <c r="BXJ57" t="s">
         <v>6076</v>
@@ -54682,7 +54672,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="58" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43403.530555555553</v>
       </c>
@@ -54708,7 +54698,7 @@
         <v>43403.532638888886</v>
       </c>
       <c r="I58" t="s">
-        <v>7191</v>
+        <v>7188</v>
       </c>
       <c r="N58">
         <v>44.068206789999998</v>
@@ -54726,28 +54716,28 @@
         <v>6116</v>
       </c>
       <c r="S58" t="s">
-        <v>7192</v>
+        <v>7189</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>7193</v>
+        <v>7190</v>
       </c>
       <c r="V58" t="s">
         <v>6113</v>
       </c>
       <c r="W58" t="s">
+        <v>7191</v>
+      </c>
+      <c r="X58" t="s">
+        <v>7192</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>7193</v>
+      </c>
+      <c r="Z58" s="1" t="s">
         <v>7194</v>
-      </c>
-      <c r="X58" t="s">
-        <v>7195</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>7196</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>7197</v>
       </c>
       <c r="AA58" t="s">
         <v>6102</v>
@@ -54777,7 +54767,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="59" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43403.59097222222</v>
       </c>
@@ -54788,7 +54778,7 @@
         <v>2173</v>
       </c>
       <c r="D59" t="s">
-        <v>7198</v>
+        <v>7195</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -54803,7 +54793,7 @@
         <v>43403.620833333334</v>
       </c>
       <c r="I59" t="s">
-        <v>7199</v>
+        <v>7196</v>
       </c>
       <c r="N59">
         <v>44.90890503</v>
@@ -54818,31 +54808,31 @@
         <v>6074</v>
       </c>
       <c r="R59" t="s">
-        <v>7200</v>
+        <v>7197</v>
       </c>
       <c r="S59" t="s">
-        <v>7201</v>
+        <v>7198</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59" t="s">
+        <v>7199</v>
+      </c>
+      <c r="V59" t="s">
+        <v>7200</v>
+      </c>
+      <c r="W59" t="s">
+        <v>7201</v>
+      </c>
+      <c r="X59" t="s">
         <v>7202</v>
       </c>
-      <c r="V59" t="s">
+      <c r="Y59" t="s">
+        <v>7197</v>
+      </c>
+      <c r="Z59" s="1" t="s">
         <v>7203</v>
-      </c>
-      <c r="W59" t="s">
-        <v>7204</v>
-      </c>
-      <c r="X59" t="s">
-        <v>7205</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>7200</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>7206</v>
       </c>
       <c r="AA59" t="s">
         <v>6090</v>
@@ -54860,13 +54850,13 @@
         <v>6078</v>
       </c>
       <c r="AN59" t="s">
-        <v>7201</v>
+        <v>7198</v>
       </c>
       <c r="AO59" t="s">
-        <v>7207</v>
+        <v>7204</v>
       </c>
       <c r="AP59" t="s">
-        <v>7207</v>
+        <v>7204</v>
       </c>
       <c r="AQ59" t="s">
         <v>6076</v>
@@ -54884,10 +54874,10 @@
         <v>0</v>
       </c>
       <c r="AW59" t="s">
-        <v>7208</v>
+        <v>7205</v>
       </c>
       <c r="EJ59" t="s">
-        <v>7209</v>
+        <v>7206</v>
       </c>
       <c r="EK59" t="s">
         <v>6076</v>
@@ -54902,10 +54892,10 @@
         <v>6646</v>
       </c>
       <c r="EP59" t="s">
-        <v>7210</v>
+        <v>7207</v>
       </c>
       <c r="EQ59" t="s">
-        <v>7211</v>
+        <v>7208</v>
       </c>
       <c r="ER59" t="s">
         <v>6167</v>
@@ -54917,22 +54907,22 @@
         <v>225</v>
       </c>
       <c r="EW59" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="EX59" t="s">
         <v>6169</v>
       </c>
       <c r="EY59" t="s">
+        <v>7210</v>
+      </c>
+      <c r="EZ59" s="1" t="s">
+        <v>7211</v>
+      </c>
+      <c r="FA59" t="s">
+        <v>7212</v>
+      </c>
+      <c r="FB59" t="s">
         <v>7213</v>
-      </c>
-      <c r="EZ59" s="1" t="s">
-        <v>7214</v>
-      </c>
-      <c r="FA59" t="s">
-        <v>7215</v>
-      </c>
-      <c r="FB59" t="s">
-        <v>7216</v>
       </c>
       <c r="BNT59" t="s">
         <v>6076</v>
@@ -54950,10 +54940,10 @@
         <v>6076</v>
       </c>
       <c r="BOA59" t="s">
-        <v>7217</v>
+        <v>7214</v>
       </c>
       <c r="BOB59" t="s">
-        <v>7218</v>
+        <v>7215</v>
       </c>
       <c r="BRP59" t="s">
         <v>6314</v>
@@ -54962,7 +54952,7 @@
         <v>6243</v>
       </c>
       <c r="BRT59" t="s">
-        <v>7219</v>
+        <v>7216</v>
       </c>
       <c r="BTN59" t="s">
         <v>6463</v>
@@ -54989,13 +54979,13 @@
         <v>6463</v>
       </c>
       <c r="CDX59" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="CDY59" t="s">
-        <v>7221</v>
+        <v>7218</v>
       </c>
     </row>
-    <row r="60" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43404.65</v>
       </c>
@@ -55006,7 +54996,7 @@
         <v>2173</v>
       </c>
       <c r="D60" t="s">
-        <v>7222</v>
+        <v>7219</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -55021,7 +55011,7 @@
         <v>43404.672222222223</v>
       </c>
       <c r="I60" t="s">
-        <v>7223</v>
+        <v>7220</v>
       </c>
       <c r="N60">
         <v>44.068206789999998</v>
@@ -55036,40 +55026,40 @@
         <v>6074</v>
       </c>
       <c r="R60" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="S60" t="s">
-        <v>7225</v>
+        <v>7222</v>
       </c>
       <c r="T60">
         <v>1</v>
       </c>
       <c r="U60" t="s">
+        <v>7223</v>
+      </c>
+      <c r="V60" t="s">
+        <v>7224</v>
+      </c>
+      <c r="W60" t="s">
+        <v>7225</v>
+      </c>
+      <c r="X60" t="s">
         <v>7226</v>
       </c>
-      <c r="V60" t="s">
+      <c r="Y60" t="s">
+        <v>7221</v>
+      </c>
+      <c r="Z60" s="1" t="s">
         <v>7227</v>
-      </c>
-      <c r="W60" t="s">
-        <v>7228</v>
-      </c>
-      <c r="X60" t="s">
-        <v>7229</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>7224</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>7230</v>
       </c>
       <c r="AA60" t="s">
         <v>6102</v>
       </c>
       <c r="AB60" t="s">
-        <v>7231</v>
+        <v>7228</v>
       </c>
       <c r="AC60" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="AD60" t="s">
         <v>6105</v>
@@ -55093,7 +55083,7 @@
         <v>6346</v>
       </c>
       <c r="AN60" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="AO60">
         <v>3</v>
@@ -55123,7 +55113,7 @@
         <v>6482</v>
       </c>
       <c r="EJ60" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="EK60" t="s">
         <v>6076</v>
@@ -55135,13 +55125,13 @@
         <v>6076</v>
       </c>
       <c r="EN60" t="s">
-        <v>7235</v>
+        <v>7232</v>
       </c>
       <c r="EP60" t="s">
-        <v>7236</v>
+        <v>7233</v>
       </c>
       <c r="EQ60" t="s">
-        <v>7237</v>
+        <v>7234</v>
       </c>
       <c r="ER60" t="s">
         <v>6167</v>
@@ -55162,19 +55152,19 @@
         <v>100</v>
       </c>
       <c r="EZ60" t="s">
-        <v>7238</v>
+        <v>7235</v>
       </c>
       <c r="FA60" t="s">
         <v>6477</v>
       </c>
       <c r="FB60" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="FC60" s="1" t="s">
-        <v>7240</v>
+        <v>7237</v>
       </c>
       <c r="FD60" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="ML60" t="s">
         <v>6176</v>
@@ -55219,19 +55209,19 @@
         <v>6076</v>
       </c>
       <c r="BOA60" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="BOB60" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="BRP60" t="s">
         <v>6182</v>
       </c>
       <c r="BRR60" t="s">
-        <v>7244</v>
+        <v>7241</v>
       </c>
       <c r="BRT60" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="BTN60" t="s">
         <v>6186</v>
@@ -55258,10 +55248,10 @@
         <v>6186</v>
       </c>
       <c r="BTV60" t="s">
-        <v>7246</v>
+        <v>7243</v>
       </c>
       <c r="BTW60" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="BXJ60" t="s">
         <v>6076</v>
@@ -55297,16 +55287,16 @@
         <v>6076</v>
       </c>
       <c r="CDX60" t="s">
-        <v>7248</v>
+        <v>7245</v>
       </c>
       <c r="CDY60" t="s">
-        <v>7249</v>
+        <v>7246</v>
       </c>
       <c r="CDZ60" t="s">
         <v>6482</v>
       </c>
     </row>
-    <row r="61" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43404.636111111111</v>
       </c>
@@ -55317,7 +55307,7 @@
         <v>2173</v>
       </c>
       <c r="D61" t="s">
-        <v>7250</v>
+        <v>7247</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -55332,7 +55322,7 @@
         <v>43404.705555555556</v>
       </c>
       <c r="I61" t="s">
-        <v>7251</v>
+        <v>7248</v>
       </c>
       <c r="N61">
         <v>44.061202999999999</v>
@@ -55347,43 +55337,43 @@
         <v>6074</v>
       </c>
       <c r="R61" t="s">
-        <v>7252</v>
+        <v>7249</v>
       </c>
       <c r="S61" t="s">
-        <v>7253</v>
+        <v>7250</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="U61" t="s">
+        <v>7251</v>
+      </c>
+      <c r="V61" t="s">
+        <v>7252</v>
+      </c>
+      <c r="W61" t="s">
+        <v>7253</v>
+      </c>
+      <c r="X61" t="s">
         <v>7254</v>
       </c>
-      <c r="V61" t="s">
+      <c r="Y61" t="s">
         <v>7255</v>
       </c>
-      <c r="W61" t="s">
+      <c r="Z61" s="1" t="s">
         <v>7256</v>
-      </c>
-      <c r="X61" t="s">
-        <v>7257</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>7258</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>7259</v>
       </c>
       <c r="AA61" t="s">
         <v>6090</v>
       </c>
       <c r="AB61" t="s">
-        <v>7260</v>
+        <v>7257</v>
       </c>
       <c r="AH61" t="s">
         <v>6146</v>
       </c>
       <c r="AI61" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="AJ61" t="s">
         <v>6077</v>
@@ -55392,13 +55382,13 @@
         <v>6416</v>
       </c>
       <c r="AN61" t="s">
-        <v>7253</v>
+        <v>7250</v>
       </c>
       <c r="AO61" t="s">
-        <v>7262</v>
+        <v>7259</v>
       </c>
       <c r="AP61" t="s">
-        <v>7262</v>
+        <v>7259</v>
       </c>
       <c r="AQ61" t="s">
         <v>6076</v>
@@ -55416,10 +55406,10 @@
         <v>0</v>
       </c>
       <c r="AW61" t="s">
-        <v>7263</v>
+        <v>7260</v>
       </c>
       <c r="EJ61" s="1" t="s">
-        <v>7264</v>
+        <v>7261</v>
       </c>
       <c r="EK61" t="s">
         <v>6076</v>
@@ -55437,16 +55427,16 @@
         <v>87</v>
       </c>
       <c r="EQ61" t="s">
-        <v>7265</v>
+        <v>7262</v>
       </c>
       <c r="ER61" t="s">
         <v>6167</v>
       </c>
       <c r="ET61" t="s">
-        <v>7266</v>
+        <v>7263</v>
       </c>
       <c r="EU61" t="s">
-        <v>7267</v>
+        <v>7264</v>
       </c>
       <c r="EV61">
         <v>50</v>
@@ -55458,22 +55448,22 @@
         <v>6169</v>
       </c>
       <c r="EY61" t="s">
+        <v>7265</v>
+      </c>
+      <c r="EZ61" s="1" t="s">
+        <v>7266</v>
+      </c>
+      <c r="FA61" t="s">
+        <v>7267</v>
+      </c>
+      <c r="FB61" t="s">
         <v>7268</v>
       </c>
-      <c r="EZ61" s="1" t="s">
+      <c r="FC61" s="1" t="s">
         <v>7269</v>
       </c>
-      <c r="FA61" t="s">
+      <c r="FD61" s="1" t="s">
         <v>7270</v>
-      </c>
-      <c r="FB61" t="s">
-        <v>7271</v>
-      </c>
-      <c r="FC61" s="1" t="s">
-        <v>7272</v>
-      </c>
-      <c r="FD61" s="1" t="s">
-        <v>7273</v>
       </c>
       <c r="ML61" t="s">
         <v>6174</v>
@@ -55506,22 +55496,22 @@
         <v>6076</v>
       </c>
       <c r="BOA61" t="s">
+        <v>7271</v>
+      </c>
+      <c r="BOB61" t="s">
+        <v>7272</v>
+      </c>
+      <c r="BRP61" t="s">
+        <v>7118</v>
+      </c>
+      <c r="BRR61" t="s">
+        <v>7273</v>
+      </c>
+      <c r="BRS61" t="s">
         <v>7274</v>
       </c>
-      <c r="BOB61" t="s">
+      <c r="BRT61" t="s">
         <v>7275</v>
-      </c>
-      <c r="BRP61" t="s">
-        <v>7120</v>
-      </c>
-      <c r="BRR61" t="s">
-        <v>7276</v>
-      </c>
-      <c r="BRS61" t="s">
-        <v>7277</v>
-      </c>
-      <c r="BRT61" t="s">
-        <v>7278</v>
       </c>
       <c r="BTN61" t="s">
         <v>6463</v>
@@ -55548,10 +55538,10 @@
         <v>6463</v>
       </c>
       <c r="BTV61" s="1" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="BTW61" t="s">
-        <v>7280</v>
+        <v>7277</v>
       </c>
       <c r="BXJ61" t="s">
         <v>6163</v>
@@ -55587,16 +55577,16 @@
         <v>6076</v>
       </c>
       <c r="CDX61" t="s">
-        <v>7281</v>
+        <v>7278</v>
       </c>
       <c r="CDY61" t="s">
-        <v>7282</v>
+        <v>7279</v>
       </c>
       <c r="CDZ61" s="1" t="s">
-        <v>7283</v>
+        <v>7280</v>
       </c>
     </row>
-    <row r="62" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43405.441666666666</v>
       </c>
@@ -55607,7 +55597,7 @@
         <v>2173</v>
       </c>
       <c r="D62" t="s">
-        <v>7284</v>
+        <v>7281</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -55622,7 +55612,7 @@
         <v>43405.607638888891</v>
       </c>
       <c r="I62" t="s">
-        <v>7285</v>
+        <v>7282</v>
       </c>
       <c r="N62">
         <v>44.068206789999998</v>
@@ -55637,31 +55627,31 @@
         <v>6074</v>
       </c>
       <c r="R62" t="s">
-        <v>7286</v>
+        <v>7283</v>
       </c>
       <c r="S62" t="s">
-        <v>7287</v>
+        <v>7284</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
+        <v>7285</v>
+      </c>
+      <c r="V62" t="s">
+        <v>7286</v>
+      </c>
+      <c r="W62" t="s">
+        <v>7287</v>
+      </c>
+      <c r="X62" t="s">
         <v>7288</v>
       </c>
-      <c r="V62" t="s">
+      <c r="Y62" t="s">
+        <v>7283</v>
+      </c>
+      <c r="Z62" s="1" t="s">
         <v>7289</v>
-      </c>
-      <c r="W62" t="s">
-        <v>7290</v>
-      </c>
-      <c r="X62" t="s">
-        <v>7291</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>7286</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>7292</v>
       </c>
       <c r="AA62" t="s">
         <v>6090</v>
@@ -55676,7 +55666,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="63" spans="1:359 1736:1998 2156:2158" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:359 1736:1998 2156:2158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43410.53402777778</v>
       </c>
@@ -55687,7 +55677,7 @@
         <v>2173</v>
       </c>
       <c r="D63" t="s">
-        <v>7293</v>
+        <v>7290</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -55702,7 +55692,7 @@
         <v>43410.536805555559</v>
       </c>
       <c r="I63" t="s">
-        <v>7294</v>
+        <v>7291</v>
       </c>
       <c r="N63">
         <v>43.229705809999999</v>
@@ -55717,37 +55707,37 @@
         <v>6074</v>
       </c>
       <c r="R63" t="s">
+        <v>7292</v>
+      </c>
+      <c r="S63" t="s">
+        <v>7293</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" t="s">
+        <v>7294</v>
+      </c>
+      <c r="V63" t="s">
         <v>7295</v>
-      </c>
-      <c r="S63" t="s">
-        <v>7296</v>
-      </c>
-      <c r="T63" t="s">
-        <v>7297</v>
-      </c>
-      <c r="U63" t="s">
-        <v>7298</v>
-      </c>
-      <c r="V63" t="s">
-        <v>7299</v>
       </c>
       <c r="W63" t="s">
         <v>6212</v>
       </c>
       <c r="X63" t="s">
-        <v>7300</v>
+        <v>7296</v>
       </c>
       <c r="Y63" t="s">
-        <v>7295</v>
+        <v>7292</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>7301</v>
+        <v>7297</v>
       </c>
       <c r="AA63" t="s">
         <v>6090</v>
       </c>
       <c r="AB63" t="s">
-        <v>7302</v>
+        <v>7298</v>
       </c>
       <c r="AH63" t="s">
         <v>6076</v>
